--- a/Book1lookup (3) (1) (1).xlsx
+++ b/Book1lookup (3) (1) (1).xlsx
@@ -5,25 +5,32 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\OneDrive\Desktop\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A36882-2B36-49D1-AC4F-38FA6F5F61E2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1986D9B4-A9B4-4839-B6BE-AFF4DF235006}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10284" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId3"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="1" r:id="rId8"/>
+    <pivotCache cacheId="4" r:id="rId9"/>
+  </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="31">
   <si>
     <t>SNO</t>
   </si>
@@ -99,16 +106,41 @@
   <si>
     <t>lookup</t>
   </si>
+  <si>
+    <t>Sum of SNO</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Price (₹)</t>
+  </si>
+  <si>
+    <t>Sum of Engine (CC)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,7 +188,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -164,30 +196,156 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,6 +361,340 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="45882.547076041665" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="5" xr:uid="{6FE842A0-2679-4B4A-B970-A2C80A138840}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="Q2:R7" sheet="Sheet2"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="Bike Model" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Price (₹)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60000" maxValue="75000"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="HP" refreshedDate="45882.547705671299" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="15" xr:uid="{8BCAF376-6B4F-42CE-943F-550FB0DE0969}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:E16" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="SNO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="15"/>
+    </cacheField>
+    <cacheField name="Bike Model" numFmtId="0">
+      <sharedItems count="15">
+        <s v="Bajaj Avenger"/>
+        <s v="Bajaj Platina"/>
+        <s v="Bajaj Pulsar"/>
+        <s v="Hero Maestro"/>
+        <s v="Hero Splendor"/>
+        <s v="Honda Activa"/>
+        <s v="Honda Shine"/>
+        <s v="Honda Unicorn"/>
+        <s v="KTM Duke"/>
+        <s v="Royal Enfield"/>
+        <s v="Suzuki Gixxer"/>
+        <s v="TVS Apache"/>
+        <s v="TVS Jupiter"/>
+        <s v="Yamaha FZ"/>
+        <s v="Yamaha Ray"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Price (₹)" numFmtId="3">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="60000" maxValue="230000"/>
+    </cacheField>
+    <cacheField name="Engine (CC)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="97" maxValue="350"/>
+    </cacheField>
+    <cacheField name="Mileage (KM/L)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="35" maxValue="70"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <s v="Hero Splendor"/>
+    <n v="60000"/>
+  </r>
+  <r>
+    <s v="Bajaj Pulsar"/>
+    <n v="68000"/>
+  </r>
+  <r>
+    <s v="TVS Apache"/>
+    <n v="72000"/>
+  </r>
+  <r>
+    <s v="Honda Shine"/>
+    <n v="73000"/>
+  </r>
+  <r>
+    <s v="Yamaha FZ"/>
+    <n v="75000"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="15">
+  <r>
+    <n v="14"/>
+    <x v="0"/>
+    <n v="200000"/>
+    <n v="220"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="1"/>
+    <n v="115000"/>
+    <n v="100"/>
+    <n v="70"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="2"/>
+    <n v="68000"/>
+    <n v="150"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="3"/>
+    <n v="130000"/>
+    <n v="110"/>
+    <n v="54"/>
+  </r>
+  <r>
+    <n v="1"/>
+    <x v="4"/>
+    <n v="60000"/>
+    <n v="97"/>
+    <n v="65"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="5"/>
+    <n v="125000"/>
+    <n v="110"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="6"/>
+    <n v="73000"/>
+    <n v="125"/>
+    <n v="60"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="7"/>
+    <n v="230000"/>
+    <n v="150"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="8"/>
+    <n v="105000"/>
+    <n v="250"/>
+    <n v="40"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="9"/>
+    <n v="80000"/>
+    <n v="350"/>
+    <n v="35"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="10"/>
+    <n v="75000"/>
+    <n v="155"/>
+    <n v="50"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="11"/>
+    <n v="72000"/>
+    <n v="160"/>
+    <n v="45"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="12"/>
+    <n v="120000"/>
+    <n v="110"/>
+    <n v="55"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="13"/>
+    <n v="75000"/>
+    <n v="149"/>
+    <n v="43"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="14"/>
+    <n v="125000"/>
+    <n v="125"/>
+    <n v="48"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{17E0274E-E6E1-49BD-828F-91F6D9C1B00E}" name="PivotTable2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D19" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="16">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="3" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="16">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of SNO" fld="0" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Price (₹)" fld="2" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Engine (CC)" fld="3" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{06F7467C-874E-4C94-B430-7162B6D853F2}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,11 +894,270 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{978638AE-037C-4007-8245-B4C94A4D91EB}">
+  <dimension ref="A3:D19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="18">
+        <v>14</v>
+      </c>
+      <c r="C4" s="18">
+        <v>200000</v>
+      </c>
+      <c r="D4" s="18">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="18">
+        <v>9</v>
+      </c>
+      <c r="C5" s="18">
+        <v>115000</v>
+      </c>
+      <c r="D5" s="18">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="18">
+        <v>2</v>
+      </c>
+      <c r="C6" s="18">
+        <v>68000</v>
+      </c>
+      <c r="D6" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="18">
+        <v>13</v>
+      </c>
+      <c r="C7" s="18">
+        <v>130000</v>
+      </c>
+      <c r="D7" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18">
+        <v>1</v>
+      </c>
+      <c r="C8" s="18">
+        <v>60000</v>
+      </c>
+      <c r="D8" s="18">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="18">
+        <v>11</v>
+      </c>
+      <c r="C9" s="18">
+        <v>125000</v>
+      </c>
+      <c r="D9" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="18">
+        <v>4</v>
+      </c>
+      <c r="C10" s="18">
+        <v>73000</v>
+      </c>
+      <c r="D10" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="18">
+        <v>15</v>
+      </c>
+      <c r="C11" s="18">
+        <v>230000</v>
+      </c>
+      <c r="D11" s="18">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18">
+        <v>8</v>
+      </c>
+      <c r="C12" s="18">
+        <v>105000</v>
+      </c>
+      <c r="D12" s="18">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="18">
+        <v>7</v>
+      </c>
+      <c r="C13" s="18">
+        <v>80000</v>
+      </c>
+      <c r="D13" s="18">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="18">
+        <v>6</v>
+      </c>
+      <c r="C14" s="18">
+        <v>75000</v>
+      </c>
+      <c r="D14" s="18">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18">
+        <v>3</v>
+      </c>
+      <c r="C15" s="18">
+        <v>72000</v>
+      </c>
+      <c r="D15" s="18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="18">
+        <v>10</v>
+      </c>
+      <c r="C16" s="18">
+        <v>120000</v>
+      </c>
+      <c r="D16" s="18">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18">
+        <v>5</v>
+      </c>
+      <c r="C17" s="18">
+        <v>75000</v>
+      </c>
+      <c r="D17" s="18">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="18">
+        <v>12</v>
+      </c>
+      <c r="C18" s="18">
+        <v>125000</v>
+      </c>
+      <c r="D18" s="18">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" s="18">
+        <v>120</v>
+      </c>
+      <c r="C19" s="18">
+        <v>1653000</v>
+      </c>
+      <c r="D19" s="18">
+        <v>2361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection sqref="A1:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1698,11 +2449,716 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F892085-FFBE-4649-9D8B-CFFC5DB4E137}">
+  <dimension ref="A1:Y18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>14</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="4">
+        <v>200000</v>
+      </c>
+      <c r="D2" s="3">
+        <v>220</v>
+      </c>
+      <c r="E2" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>9</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="4">
+        <v>115000</v>
+      </c>
+      <c r="D3" s="3">
+        <v>100</v>
+      </c>
+      <c r="E3" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4">
+        <v>68000</v>
+      </c>
+      <c r="D4" s="3">
+        <v>150</v>
+      </c>
+      <c r="E4" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="4">
+        <v>130000</v>
+      </c>
+      <c r="D5" s="3">
+        <v>110</v>
+      </c>
+      <c r="E5" s="3">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>1</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4">
+        <v>60000</v>
+      </c>
+      <c r="D6" s="3">
+        <v>97</v>
+      </c>
+      <c r="E6" s="3">
+        <v>65</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>14</v>
+      </c>
+      <c r="L6" s="1">
+        <v>9</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>13</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>15</v>
+      </c>
+      <c r="S6" s="1">
+        <v>8</v>
+      </c>
+      <c r="T6" s="1">
+        <v>7</v>
+      </c>
+      <c r="U6" s="1">
+        <v>6</v>
+      </c>
+      <c r="V6" s="1">
+        <v>3</v>
+      </c>
+      <c r="W6" s="1">
+        <v>10</v>
+      </c>
+      <c r="X6" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>11</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="4">
+        <v>125000</v>
+      </c>
+      <c r="D7" s="3">
+        <v>110</v>
+      </c>
+      <c r="E7" s="3">
+        <v>50</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="O7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="S7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="T7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="W7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="X7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="4">
+        <v>73000</v>
+      </c>
+      <c r="D8" s="3">
+        <v>125</v>
+      </c>
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="4">
+        <v>200000</v>
+      </c>
+      <c r="L8" s="4">
+        <v>115000</v>
+      </c>
+      <c r="M8" s="4">
+        <v>68000</v>
+      </c>
+      <c r="N8" s="4">
+        <v>130000</v>
+      </c>
+      <c r="O8" s="4">
+        <v>60000</v>
+      </c>
+      <c r="P8" s="4">
+        <v>125000</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>73000</v>
+      </c>
+      <c r="R8" s="4">
+        <v>230000</v>
+      </c>
+      <c r="S8" s="4">
+        <v>105000</v>
+      </c>
+      <c r="T8" s="4">
+        <v>80000</v>
+      </c>
+      <c r="U8" s="4">
+        <v>75000</v>
+      </c>
+      <c r="V8" s="4">
+        <v>72000</v>
+      </c>
+      <c r="W8" s="4">
+        <v>120000</v>
+      </c>
+      <c r="X8" s="4">
+        <v>75000</v>
+      </c>
+      <c r="Y8" s="4">
+        <v>125000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>15</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="4">
+        <v>230000</v>
+      </c>
+      <c r="D9" s="3">
+        <v>150</v>
+      </c>
+      <c r="E9" s="3">
+        <v>55</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K9" s="3">
+        <v>220</v>
+      </c>
+      <c r="L9" s="3">
+        <v>100</v>
+      </c>
+      <c r="M9" s="3">
+        <v>150</v>
+      </c>
+      <c r="N9" s="3">
+        <v>110</v>
+      </c>
+      <c r="O9" s="3">
+        <v>97</v>
+      </c>
+      <c r="P9" s="3">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>125</v>
+      </c>
+      <c r="R9" s="3">
+        <v>150</v>
+      </c>
+      <c r="S9" s="3">
+        <v>250</v>
+      </c>
+      <c r="T9" s="3">
+        <v>350</v>
+      </c>
+      <c r="U9" s="3">
+        <v>155</v>
+      </c>
+      <c r="V9" s="3">
+        <v>160</v>
+      </c>
+      <c r="W9" s="3">
+        <v>110</v>
+      </c>
+      <c r="X9" s="3">
+        <v>149</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>105000</v>
+      </c>
+      <c r="D10" s="3">
+        <v>250</v>
+      </c>
+      <c r="E10" s="3">
+        <v>40</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10" s="3">
+        <v>40</v>
+      </c>
+      <c r="L10" s="3">
+        <v>70</v>
+      </c>
+      <c r="M10" s="3">
+        <v>50</v>
+      </c>
+      <c r="N10" s="3">
+        <v>54</v>
+      </c>
+      <c r="O10" s="3">
+        <v>65</v>
+      </c>
+      <c r="P10" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>60</v>
+      </c>
+      <c r="R10" s="3">
+        <v>55</v>
+      </c>
+      <c r="S10" s="3">
+        <v>40</v>
+      </c>
+      <c r="T10" s="3">
+        <v>35</v>
+      </c>
+      <c r="U10" s="3">
+        <v>50</v>
+      </c>
+      <c r="V10" s="3">
+        <v>45</v>
+      </c>
+      <c r="W10" s="3">
+        <v>55</v>
+      </c>
+      <c r="X10" s="3">
+        <v>43</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>80000</v>
+      </c>
+      <c r="D11" s="3">
+        <v>350</v>
+      </c>
+      <c r="E11" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4">
+        <v>75000</v>
+      </c>
+      <c r="D12" s="3">
+        <v>155</v>
+      </c>
+      <c r="E12" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>3</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="4">
+        <v>72000</v>
+      </c>
+      <c r="D13" s="3">
+        <v>160</v>
+      </c>
+      <c r="E13" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="4">
+        <v>120000</v>
+      </c>
+      <c r="D14" s="3">
+        <v>110</v>
+      </c>
+      <c r="E14" s="3">
+        <v>55</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>5</v>
+      </c>
+      <c r="P14">
+        <v>8</v>
+      </c>
+      <c r="Q14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="4">
+        <v>75000</v>
+      </c>
+      <c r="D15" s="3">
+        <v>149</v>
+      </c>
+      <c r="E15" s="3">
+        <v>43</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="O15" s="21" t="str">
+        <f>HLOOKUP(O14,J6:Y10,2,0)</f>
+        <v>Yamaha FZ</v>
+      </c>
+      <c r="P15" s="21" t="str">
+        <f t="shared" ref="P15:Q17" si="0">HLOOKUP(P14,K6:Z10,2,0)</f>
+        <v>KTM Duke</v>
+      </c>
+      <c r="Q15" s="21" t="str">
+        <f t="shared" si="0"/>
+        <v>Bajaj Platina</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>12</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="4">
+        <v>125000</v>
+      </c>
+      <c r="D16" s="3">
+        <v>125</v>
+      </c>
+      <c r="E16" s="3">
+        <v>48</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O16" s="21">
+        <f t="shared" ref="O16:P16" si="1">HLOOKUP(O15,J7:Y11,2,0)</f>
+        <v>75000</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="0"/>
+        <v>105000</v>
+      </c>
+      <c r="Q16" s="21">
+        <f t="shared" si="0"/>
+        <v>115000</v>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+    </row>
+    <row r="17" spans="14:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N17" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" s="21">
+        <f>HLOOKUP(O16,J8:Y12,2,)</f>
+        <v>155</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+      <c r="Q17" s="21">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="18" spans="14:17" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="N18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="21">
+        <f t="shared" ref="O18:P18" si="2">HLOOKUP(P17,K9:Z13,2,0)</f>
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{648AAE70-D5CB-480D-ACA8-A939378989AD}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="9"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="11"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="12"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="14"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="14"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="12"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="12"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="12"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="12"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="12"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="14"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="12"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="14"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="12"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="14"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="12"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="14"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="12"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="14"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="12"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="14"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="12"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="14"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CBF057D-C7E9-464B-8580-7699E682349D}">
   <dimension ref="A1:R16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
@@ -2069,7 +3525,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91AC0603-E423-4631-B4DD-93B9BB9E896B}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -2184,7 +3640,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDC1D0C-AC93-41EA-ADB1-C33A3110C013}">
   <dimension ref="A1:E16"/>
   <sheetViews>
